--- a/biology/Botanique/Haemodoraceae/Haemodoraceae.xlsx
+++ b/biology/Botanique/Haemodoraceae/Haemodoraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Haemodoraceae (Hémodoracées) regroupe des plantes monocotylédones ; elle comprend moins de cent espèces réparties en une quinzaine de genres.
 Ce sont des plantes herbacées, rhizomateuses, tubéreuses ou bulbeuses, pérennes, à rosettes, des régions tempérées à tropicales.
-La classification phylogénétique APG II (2003)[1] et la classification phylogénétique APG III (2009)[2] placent aujourd'hui cette famille dans l'ordre des Commelinales.
+La classification phylogénétique APG II (2003) et la classification phylogénétique APG III (2009) placent aujourd'hui cette famille dans l'ordre des Commelinales.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Haemodorum dérivé du grec αίμα / haima, sang, et δώρων / doron, cadeau[3], en référence à l'emploi des racines de couleur rouge utilisées comme aliment par les aborigènes d'Australie[4]. Le genre a été décrit en 1798 par le botaniste britannique James Edward Smith[5],[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Haemodorum dérivé du grec αίμα / haima, sang, et δώρων / doron, cadeau, en référence à l'emploi des racines de couleur rouge utilisées comme aliment par les aborigènes d'Australie. Le genre a été décrit en 1798 par le botaniste britannique James Edward Smith,.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (19 avr. 2010)[7] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (19 avr. 2010) :
 genre Anigozanthos  Labill. (1800)
 genre Barberetta (en)  Harv., Gen. S. Afr. Pl. (1868)
 genre Blancoa  Lindl. (1839)
@@ -561,7 +577,7 @@
 genre Tribonanthes (en)  Endl. (1839)
 genre Wachendorfia  Burm. (1757)
 genre Xiphidium  Aubl. (1775)
-Selon Angiosperm Phylogeny Website                        (18 mai 2010)[8] :
+Selon Angiosperm Phylogeny Website                        (18 mai 2010) :
 genre Anigozanthos Labill.
 genre Barberetta Harv.
 genre Blancoa Lindl.
@@ -576,7 +592,7 @@
 genre Tribonanthes Endl.
 genre Wachendorfia Burm.
 genre Xiphidium Aubl.
-Selon NCBI  (19 avr. 2010)[9] :
+Selon NCBI  (19 avr. 2010) :
 genre Anigozanthos
 genre Barberetta
 genre Blancoa
@@ -590,7 +606,7 @@
 genre Tribonanthes
 genre Wachendorfia
 genre Xiphidium
-Selon DELTA Angio           (19 avr. 2010)[10] :
+Selon DELTA Angio           (19 avr. 2010) :
 genre Anigozanthos
 genre Barberetta
 genre Blancoa
@@ -605,7 +621,7 @@
 genre Tribonanthes
 genre Xiphidium
 genre Wachendorfia
-Selon ITIS      (20 avr. 2010)[11] :
+Selon ITIS      (20 avr. 2010) :
 genre Lachnanthes (en)  Ell.
 genre Xiphidium  Aubl.</t>
         </is>
